--- a/Copia de Formulario_Plantilla_BasicaSenalizacion_v2_11_2016_Ciclorruta Las Vegas (002).xlsx
+++ b/Copia de Formulario_Plantilla_BasicaSenalizacion_v2_11_2016_Ciclorruta Las Vegas (002).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN_PC\Desktop\señalizacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LMOG\DocumentosLina\GitHub\cicloruta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAC8C01-62F9-4824-802D-2AD422ABB31C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9450" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9450" tabRatio="711"/>
   </bookViews>
   <sheets>
     <sheet name="SENAL_HORIZONTAL" sheetId="29" r:id="rId1"/>
@@ -56,12 +55,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lina</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="A8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -277,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -301,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -349,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -373,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -397,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="A16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -421,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="A17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="A18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -469,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -493,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="A21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -541,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="A22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="A23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -589,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="A24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -613,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="A25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -637,7 +636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="A26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -661,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="A27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="A28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -709,7 +708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="A29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -733,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="A30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -757,7 +756,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="A31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -781,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+    <comment ref="A32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -805,7 +804,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+    <comment ref="A33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -829,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+    <comment ref="A34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -853,7 +852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+    <comment ref="A35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -877,7 +876,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+    <comment ref="A36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -901,7 +900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+    <comment ref="A37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -925,7 +924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+    <comment ref="A38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -949,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+    <comment ref="A39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -973,7 +972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+    <comment ref="A40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -997,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
+    <comment ref="A41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1021,7 +1020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
+    <comment ref="A42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1045,7 +1044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
+    <comment ref="A43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1069,7 +1068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
+    <comment ref="A44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1093,7 +1092,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
+    <comment ref="A45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1117,7 +1116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
+    <comment ref="A46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1141,7 +1140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
+    <comment ref="A47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1165,7 +1164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
+    <comment ref="A48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1189,7 +1188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
+    <comment ref="A49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1213,7 +1212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
+    <comment ref="A50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1237,7 +1236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
+    <comment ref="A51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1261,7 +1260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
+    <comment ref="A52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
+    <comment ref="A53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1309,7 +1308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
+    <comment ref="A54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1333,7 +1332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
+    <comment ref="A55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1357,7 +1356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
+    <comment ref="A56" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1381,7 +1380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
+    <comment ref="A57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1405,7 +1404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
+    <comment ref="A58" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1429,7 +1428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
+    <comment ref="A59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1453,7 +1452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
+    <comment ref="A60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1477,7 +1476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
+    <comment ref="A61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1501,7 +1500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
+    <comment ref="A62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1525,7 +1524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
+    <comment ref="A63" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1549,7 +1548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
+    <comment ref="A64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1573,7 +1572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
+    <comment ref="A65" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1597,7 +1596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
+    <comment ref="A66" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1621,7 +1620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
+    <comment ref="A67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1645,7 +1644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
+    <comment ref="A68" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1669,7 +1668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
+    <comment ref="A69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1693,7 +1692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
+    <comment ref="A70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1717,7 +1716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
+    <comment ref="A71" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1741,7 +1740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
+    <comment ref="A72" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1765,7 +1764,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A73" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000048000000}">
+    <comment ref="A73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1789,7 +1788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A74" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000049000000}">
+    <comment ref="A74" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1813,7 +1812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A75" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004A000000}">
+    <comment ref="A75" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1837,7 +1836,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004B000000}">
+    <comment ref="A76" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1861,7 +1860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A77" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004C000000}">
+    <comment ref="A77" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1885,7 +1884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A78" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004D000000}">
+    <comment ref="A78" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1909,7 +1908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004E000000}">
+    <comment ref="A79" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1933,7 +1932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A80" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004F000000}">
+    <comment ref="A80" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1957,7 +1956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000050000000}">
+    <comment ref="A81" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1981,7 +1980,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000051000000}">
+    <comment ref="A82" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2005,7 +2004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000052000000}">
+    <comment ref="A83" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2029,7 +2028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000053000000}">
+    <comment ref="A84" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2053,7 +2052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000054000000}">
+    <comment ref="A85" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2077,7 +2076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000055000000}">
+    <comment ref="A86" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2101,7 +2100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A89" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000056000000}">
+    <comment ref="A89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2125,7 +2124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000057000000}">
+    <comment ref="A90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2149,7 +2148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000058000000}">
+    <comment ref="A91" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2173,7 +2172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000059000000}">
+    <comment ref="A92" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2197,7 +2196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005A000000}">
+    <comment ref="A93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2221,7 +2220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A94" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005B000000}">
+    <comment ref="A94" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2250,12 +2249,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lina</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2279,7 +2278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2303,7 +2302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4894,7 +4893,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -5671,10 +5670,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Millares [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Millares 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Millares 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal_formatos_SAV" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal_formatos_SAV" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5765,23 +5764,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5817,23 +5799,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6009,14 +5974,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja10" filterMode="1">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:R974"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="M10" sqref="M10:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -6474,6 +6439,8 @@
       <c r="K10" s="124" t="s">
         <v>7</v>
       </c>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
       <c r="O10" s="127">
         <v>6</v>
       </c>
@@ -6517,6 +6484,8 @@
       <c r="K11" s="124" t="s">
         <v>7</v>
       </c>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
       <c r="O11" s="127">
         <v>6</v>
       </c>
@@ -6560,7 +6529,8 @@
       <c r="K12" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="123"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
       <c r="O12" s="125">
         <v>5</v>
       </c>
@@ -6604,7 +6574,8 @@
       <c r="K13" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="123"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
       <c r="O13" s="125">
         <v>5</v>
       </c>
@@ -6648,7 +6619,8 @@
       <c r="K14" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="N14" s="123"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
       <c r="O14" s="125">
         <v>5</v>
       </c>
@@ -6692,7 +6664,8 @@
       <c r="K15" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="123"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
       <c r="O15" s="125">
         <v>5</v>
       </c>
@@ -6736,7 +6709,8 @@
       <c r="K16" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="123"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
       <c r="O16" s="125">
         <v>5</v>
       </c>
@@ -27754,7 +27728,7 @@
       <c r="I974" s="80"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R973" xr:uid="{2FA59795-FA58-4559-94BD-1A4B486A8B03}">
+  <autoFilter ref="A1:R973">
     <filterColumn colId="0">
       <filters>
         <filter val="2000030"/>
@@ -27763,25 +27737,25 @@
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations xWindow="312" yWindow="164" count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66030 S2:S65916" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66030 S2:S65916">
       <formula1>SENTIDO_TRANSITO</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I66030" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I66030">
       <formula1>CATEGORIA_HORIZONTAL</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M66030" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M66030">
       <formula1>ANCHO_LINEA</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J66030" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J66030">
       <formula1>TIPO_LINEA</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K66030" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K66030">
       <formula1>COLOR</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L66030" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L66030">
       <formula1>TIPO_PINTURA</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A973" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A973">
       <formula1>0</formula1>
       <formula2>7</formula2>
     </dataValidation>
@@ -27794,7 +27768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -27838,7 +27812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B260"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -28061,7 +28035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28129,7 +28103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28173,7 +28147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -28962,7 +28936,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U65536" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U65536">
       <formula1>SENTIDO_TRANSITO</formula1>
     </dataValidation>
   </dataValidations>
@@ -28978,7 +28952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja9">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -33579,20 +33553,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G65005" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="G1:G65005"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations xWindow="204" yWindow="162" count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F66:F65551 F2:F64" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F66:F65551 F2:F64">
       <formula1>SENTIDO_TRANSITO</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B65551" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B65551">
       <formula1>"1,3,5,7,9,11"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>0</formula1>
       <formula2>7</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Fecha" prompt="Formato dd/mm/aaaa" sqref="D1:D85 D87:D1048576 C86" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Fecha" prompt="Formato dd/mm/aaaa" sqref="D1:D85 D87:D1048576 C86"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -33601,7 +33575,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="204" yWindow="162" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>D_Senal_Vertical!$A$2:$A$257</xm:f>
           </x14:formula1>
@@ -33614,7 +33588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
@@ -40353,7 +40327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
@@ -41912,7 +41886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -42087,7 +42061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B257"/>
   <sheetViews>
     <sheetView topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
@@ -44164,7 +44138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -44575,7 +44549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Copia de Formulario_Plantilla_BasicaSenalizacion_v2_11_2016_Ciclorruta Las Vegas (002).xlsx
+++ b/Copia de Formulario_Plantilla_BasicaSenalizacion_v2_11_2016_Ciclorruta Las Vegas (002).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN_PC\Documents\GitHub\cicloruta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EE6A78-4608-4258-BC15-4826B92DF4CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AFE062-BB95-44F7-B273-6F4679FD2D45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9450" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2333,7 +2333,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3928" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="856">
   <si>
     <t>ID_OP</t>
   </si>
@@ -4898,6 +4898,9 @@
   </si>
   <si>
     <t>tach´s</t>
+  </si>
+  <si>
+    <t>dist</t>
   </si>
 </sst>
 </file>
@@ -5392,7 +5395,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5738,6 +5741,7 @@
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Millares [0]" xfId="4" builtinId="6"/>
@@ -6085,8 +6089,8 @@
   </sheetPr>
   <dimension ref="A1:R1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D390" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G407" sqref="G407"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120:G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -6102,12 +6106,12 @@
     <col min="9" max="9" width="18.7109375" style="123" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" style="123" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" style="123" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="123" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" style="123" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="130" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="130" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="123" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="123" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="130" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="130" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" style="123" customWidth="1"/>
-    <col min="17" max="17" width="37" style="123" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="123" customWidth="1"/>
     <col min="18" max="18" width="55" style="123" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="11.42578125" style="123"/>
   </cols>
@@ -9972,8 +9976,12 @@
       <c r="E119" s="2">
         <v>1</v>
       </c>
-      <c r="F119" s="132"/>
-      <c r="G119" s="132"/>
+      <c r="F119" s="161">
+        <v>180260</v>
+      </c>
+      <c r="G119" s="161">
+        <v>180260</v>
+      </c>
       <c r="I119" s="2" t="s">
         <v>73</v>
       </c>
@@ -10001,8 +10009,12 @@
       <c r="E120" s="2">
         <v>1</v>
       </c>
-      <c r="F120" s="132"/>
-      <c r="G120" s="132"/>
+      <c r="F120" s="161">
+        <v>180260</v>
+      </c>
+      <c r="G120" s="161">
+        <v>180260</v>
+      </c>
       <c r="I120" s="2" t="s">
         <v>73</v>
       </c>
@@ -11116,35 +11128,35 @@
         <v>838</v>
       </c>
     </row>
-    <row r="164" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="104">
+    <row r="164" spans="1:18" s="169" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="147">
         <v>2000029</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="169">
         <v>2</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="169">
         <v>2</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164" s="169">
         <v>-1</v>
       </c>
-      <c r="F164" s="132"/>
-      <c r="G164" s="132"/>
-      <c r="I164" s="31" t="s">
+      <c r="F164" s="136"/>
+      <c r="G164" s="136"/>
+      <c r="I164" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="J164" s="62" t="s">
+      <c r="J164" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="K164" s="15" t="s">
+      <c r="K164" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="P164" s="17"/>
-      <c r="Q164" t="s">
+      <c r="P164" s="171"/>
+      <c r="Q164" s="172" t="s">
         <v>768</v>
       </c>
-      <c r="R164" s="32" t="s">
+      <c r="R164" s="173" t="s">
         <v>93</v>
       </c>
     </row>
@@ -12155,7 +12167,7 @@
         <v>112708</v>
       </c>
       <c r="G196" s="168">
-        <f t="shared" ref="G196:G214" si="7">F196-504</f>
+        <f t="shared" ref="G196:G213" si="7">F196-504</f>
         <v>112204</v>
       </c>
       <c r="K196" s="62" t="s">
@@ -14305,65 +14317,65 @@
         <v>837</v>
       </c>
     </row>
-    <row r="267" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="104">
+    <row r="267" spans="1:18" s="169" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="147">
         <v>2000029</v>
       </c>
-      <c r="B267" s="2">
+      <c r="B267" s="169">
         <v>4</v>
       </c>
-      <c r="C267" s="2">
+      <c r="C267" s="169">
         <v>2</v>
       </c>
-      <c r="E267" s="2">
-        <v>1</v>
-      </c>
-      <c r="F267" s="132"/>
-      <c r="G267" s="132"/>
-      <c r="I267" s="31" t="s">
+      <c r="E267" s="169">
+        <v>1</v>
+      </c>
+      <c r="F267" s="136"/>
+      <c r="G267" s="136"/>
+      <c r="I267" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="J267" s="62" t="s">
+      <c r="J267" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="K267" s="15" t="s">
+      <c r="K267" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="P267" s="17"/>
-      <c r="Q267" t="s">
+      <c r="P267" s="171"/>
+      <c r="Q267" s="172" t="s">
         <v>768</v>
       </c>
-      <c r="R267" s="32" t="s">
+      <c r="R267" s="173" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="268" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="104">
+    <row r="268" spans="1:18" s="169" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="147">
         <v>2000029</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268" s="169">
         <v>2</v>
       </c>
-      <c r="C268" s="2">
+      <c r="C268" s="169">
         <v>2</v>
       </c>
-      <c r="E268" s="2">
+      <c r="E268" s="169">
         <v>-1</v>
       </c>
-      <c r="F268" s="132"/>
-      <c r="G268" s="132"/>
-      <c r="I268" s="15"/>
-      <c r="J268" s="15" t="s">
+      <c r="F268" s="136"/>
+      <c r="G268" s="136"/>
+      <c r="I268" s="175"/>
+      <c r="J268" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="K268" s="15" t="s">
+      <c r="K268" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="P268" s="17"/>
-      <c r="Q268" t="s">
+      <c r="P268" s="171"/>
+      <c r="Q268" s="172" t="s">
         <v>768</v>
       </c>
-      <c r="R268" s="113" t="s">
+      <c r="R268" s="181" t="s">
         <v>847</v>
       </c>
     </row>
@@ -14517,10 +14529,10 @@
         <v>-1</v>
       </c>
       <c r="F273" s="178">
-        <v>32260</v>
+        <v>103480</v>
       </c>
       <c r="G273" s="178">
-        <v>32260</v>
+        <v>103480</v>
       </c>
       <c r="I273" s="176"/>
       <c r="J273" s="176" t="s">
@@ -18858,7 +18870,7 @@
         <v>80430</v>
       </c>
       <c r="G407" s="174">
-        <f t="shared" si="12"/>
+        <f>F407-485</f>
         <v>79945</v>
       </c>
       <c r="K407" s="62" t="s">
@@ -19985,8 +19997,13 @@
       <c r="E450" s="2">
         <v>-1</v>
       </c>
-      <c r="F450" s="132"/>
-      <c r="G450" s="132"/>
+      <c r="F450" s="161">
+        <v>5095</v>
+      </c>
+      <c r="G450" s="161">
+        <f>F450-400</f>
+        <v>4695</v>
+      </c>
       <c r="I450" s="15" t="s">
         <v>99</v>
       </c>
@@ -20015,8 +20032,14 @@
       <c r="E451" s="2">
         <v>-1</v>
       </c>
-      <c r="F451" s="132"/>
-      <c r="G451" s="132"/>
+      <c r="F451" s="161">
+        <f>F450-400</f>
+        <v>4695</v>
+      </c>
+      <c r="G451" s="161">
+        <f t="shared" ref="G451:G454" si="14">F451-400</f>
+        <v>4295</v>
+      </c>
       <c r="I451" s="15" t="s">
         <v>99</v>
       </c>
@@ -20045,8 +20068,14 @@
       <c r="E452" s="2">
         <v>-1</v>
       </c>
-      <c r="F452" s="132"/>
-      <c r="G452" s="132"/>
+      <c r="F452" s="161">
+        <f t="shared" ref="F452:F454" si="15">F451-400</f>
+        <v>4295</v>
+      </c>
+      <c r="G452" s="161">
+        <f t="shared" si="14"/>
+        <v>3895</v>
+      </c>
       <c r="I452" s="15" t="s">
         <v>99</v>
       </c>
@@ -20075,8 +20104,14 @@
       <c r="E453" s="2">
         <v>-1</v>
       </c>
-      <c r="F453" s="132"/>
-      <c r="G453" s="132"/>
+      <c r="F453" s="161">
+        <f t="shared" si="15"/>
+        <v>3895</v>
+      </c>
+      <c r="G453" s="161">
+        <f t="shared" si="14"/>
+        <v>3495</v>
+      </c>
       <c r="I453" s="15" t="s">
         <v>99</v>
       </c>
@@ -20105,8 +20140,14 @@
       <c r="E454" s="2">
         <v>-1</v>
       </c>
-      <c r="F454" s="132"/>
-      <c r="G454" s="132"/>
+      <c r="F454" s="161">
+        <f t="shared" si="15"/>
+        <v>3495</v>
+      </c>
+      <c r="G454" s="161">
+        <f t="shared" si="14"/>
+        <v>3095</v>
+      </c>
       <c r="I454" s="15" t="s">
         <v>99</v>
       </c>
@@ -20285,7 +20326,9 @@
       <c r="E460" s="2">
         <v>-1</v>
       </c>
-      <c r="F460" s="132"/>
+      <c r="F460" s="161">
+        <v>5400</v>
+      </c>
       <c r="G460" s="132"/>
       <c r="I460" s="62" t="s">
         <v>18</v>
@@ -20296,7 +20339,9 @@
       <c r="K460" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P460" s="17"/>
+      <c r="P460" s="17" t="s">
+        <v>855</v>
+      </c>
       <c r="Q460" t="s">
         <v>768</v>
       </c>
@@ -20317,7 +20362,9 @@
       <c r="E461" s="2">
         <v>-1</v>
       </c>
-      <c r="F461" s="132"/>
+      <c r="F461" s="161">
+        <v>4780</v>
+      </c>
       <c r="G461" s="132"/>
       <c r="I461" s="15" t="s">
         <v>19</v>
@@ -20346,7 +20393,9 @@
       <c r="E462" s="2">
         <v>-1</v>
       </c>
-      <c r="F462" s="132"/>
+      <c r="F462" s="161">
+        <v>2290</v>
+      </c>
       <c r="G462" s="132"/>
       <c r="I462" s="2" t="s">
         <v>11</v>
